--- a/input/Расписание №1 Form.xlsx
+++ b/input/Расписание №1 Form.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mission\5.Programming\pythonProject\University-Schedule-Planner\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9007416F-CD82-4739-9E62-C1FBC4E1A12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1789F54A-C709-4AB1-89E2-12FFA78EBDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="7728" windowWidth="14160" windowHeight="5136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="996" yWindow="324" windowWidth="21108" windowHeight="15432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="form" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>group</t>
   </si>
@@ -44,9 +44,6 @@
     <t>teacher</t>
   </si>
   <si>
-    <t>auditory</t>
-  </si>
-  <si>
     <t>Лекция</t>
   </si>
   <si>
@@ -92,13 +89,13 @@
     <t>Warning</t>
   </si>
   <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>les</t>
-  </si>
-  <si>
-    <t>alarm</t>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>auditorium</t>
   </si>
 </sst>
 </file>
@@ -186,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -214,10 +211,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -520,201 +513,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="4.88671875" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5546875" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" customWidth="1"/>
+    <col min="4" max="4" width="5.5546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5546875" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>12</v>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
       </c>
       <c r="D4" s="3">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
+        <v>3</v>
       </c>
       <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="3">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
+        <v>12</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -742,19 +719,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
@@ -762,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
@@ -771,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.35">
@@ -779,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
@@ -788,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
